--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adm-Calcr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adm-Calcr.xlsx
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.455024</v>
+        <v>17.956883</v>
       </c>
       <c r="H2">
-        <v>24.910048</v>
+        <v>35.913766</v>
       </c>
       <c r="I2">
-        <v>0.2137786973425757</v>
+        <v>0.3392380274206944</v>
       </c>
       <c r="J2">
-        <v>0.1547465300518145</v>
+        <v>0.2584869083704147</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>3.630373</v>
+        <v>0.046576</v>
       </c>
       <c r="N2">
-        <v>7.260746</v>
+        <v>0.093152</v>
       </c>
       <c r="O2">
-        <v>0.9976963734668979</v>
+        <v>0.07994370161857847</v>
       </c>
       <c r="P2">
-        <v>0.9965485356427827</v>
+        <v>0.07994370161857847</v>
       </c>
       <c r="Q2">
-        <v>45.216382843952</v>
+        <v>0.8363597826079999</v>
       </c>
       <c r="R2">
-        <v>180.865531375808</v>
+        <v>3.345439130432</v>
       </c>
       <c r="S2">
-        <v>0.2132862310631653</v>
+        <v>0.02711994364179514</v>
       </c>
       <c r="T2">
-        <v>0.1542124279189376</v>
+        <v>0.02066440027507326</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -599,46 +599,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.455024</v>
+        <v>17.956883</v>
       </c>
       <c r="H3">
-        <v>24.910048</v>
+        <v>35.913766</v>
       </c>
       <c r="I3">
-        <v>0.2137786973425757</v>
+        <v>0.3392380274206944</v>
       </c>
       <c r="J3">
-        <v>0.1547465300518145</v>
+        <v>0.2584869083704147</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.008382333333333334</v>
+        <v>0.536034</v>
       </c>
       <c r="N3">
-        <v>0.025147</v>
+        <v>1.072068</v>
       </c>
       <c r="O3">
-        <v>0.00230362653310207</v>
+        <v>0.9200562983814217</v>
       </c>
       <c r="P3">
-        <v>0.003451464357217434</v>
+        <v>0.9200562983814217</v>
       </c>
       <c r="Q3">
-        <v>0.1044021628426667</v>
+        <v>9.625499822021998</v>
       </c>
       <c r="R3">
-        <v>0.6264129770559999</v>
+        <v>38.50199928808799</v>
       </c>
       <c r="S3">
-        <v>0.0004924662794103543</v>
+        <v>0.3121180837788993</v>
       </c>
       <c r="T3">
-        <v>0.0005341021328769143</v>
+        <v>0.2378225080953414</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,40 +667,40 @@
         <v>98.26071899999999</v>
       </c>
       <c r="I4">
-        <v>0.5621840768235339</v>
+        <v>0.6187742881378531</v>
       </c>
       <c r="J4">
-        <v>0.6104165397692691</v>
+        <v>0.7072248972319991</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>3.630373</v>
+        <v>0.046576</v>
       </c>
       <c r="N4">
-        <v>7.260746</v>
+        <v>0.093152</v>
       </c>
       <c r="O4">
-        <v>0.9976963734668979</v>
+        <v>0.07994370161857847</v>
       </c>
       <c r="P4">
-        <v>0.9965485356427827</v>
+        <v>0.07994370161857847</v>
       </c>
       <c r="Q4">
-        <v>118.907687072729</v>
+        <v>1.525530416048</v>
       </c>
       <c r="R4">
-        <v>713.446122436374</v>
+        <v>9.153182496288</v>
       </c>
       <c r="S4">
-        <v>0.5608890146676757</v>
+        <v>0.04946710706014083</v>
       </c>
       <c r="T4">
-        <v>0.6083097088391995</v>
+        <v>0.05653817616154476</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,40 +729,40 @@
         <v>98.26071899999999</v>
       </c>
       <c r="I5">
-        <v>0.5621840768235339</v>
+        <v>0.6187742881378531</v>
       </c>
       <c r="J5">
-        <v>0.6104165397692691</v>
+        <v>0.7072248972319991</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.008382333333333334</v>
+        <v>0.536034</v>
       </c>
       <c r="N5">
-        <v>0.025147</v>
+        <v>1.072068</v>
       </c>
       <c r="O5">
-        <v>0.00230362653310207</v>
+        <v>0.9200562983814217</v>
       </c>
       <c r="P5">
-        <v>0.003451464357217434</v>
+        <v>0.9200562983814217</v>
       </c>
       <c r="Q5">
-        <v>0.2745513667436666</v>
+        <v>17.557028749482</v>
       </c>
       <c r="R5">
-        <v>2.470962300693</v>
+        <v>105.342172496892</v>
       </c>
       <c r="S5">
-        <v>0.001295062155858185</v>
+        <v>0.5693071810777123</v>
       </c>
       <c r="T5">
-        <v>0.00210683093006963</v>
+        <v>0.6506867210704544</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.3556395</v>
+        <v>1.903653</v>
       </c>
       <c r="H6">
-        <v>2.711279</v>
+        <v>3.807306</v>
       </c>
       <c r="I6">
-        <v>0.02326826880270489</v>
+        <v>0.03596345137480081</v>
       </c>
       <c r="J6">
-        <v>0.01684304330735749</v>
+        <v>0.02740282812891664</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>3.630373</v>
+        <v>0.046576</v>
       </c>
       <c r="N6">
-        <v>7.260746</v>
+        <v>0.093152</v>
       </c>
       <c r="O6">
-        <v>0.9976963734668979</v>
+        <v>0.07994370161857847</v>
       </c>
       <c r="P6">
-        <v>0.9965485356427827</v>
+        <v>0.07994370161857847</v>
       </c>
       <c r="Q6">
-        <v>4.9214770385335</v>
+        <v>0.088664542128</v>
       </c>
       <c r="R6">
-        <v>19.685908154134</v>
+        <v>0.354658168512</v>
       </c>
       <c r="S6">
-        <v>0.02321466740131163</v>
+        <v>0.002875051425881331</v>
       </c>
       <c r="T6">
-        <v>0.01678491014371507</v>
+        <v>0.002190683515443301</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -847,46 +847,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.3556395</v>
+        <v>1.903653</v>
       </c>
       <c r="H7">
-        <v>2.711279</v>
+        <v>3.807306</v>
       </c>
       <c r="I7">
-        <v>0.02326826880270489</v>
+        <v>0.03596345137480081</v>
       </c>
       <c r="J7">
-        <v>0.01684304330735749</v>
+        <v>0.02740282812891664</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.008382333333333334</v>
+        <v>0.536034</v>
       </c>
       <c r="N7">
-        <v>0.025147</v>
+        <v>1.072068</v>
       </c>
       <c r="O7">
-        <v>0.00230362653310207</v>
+        <v>0.9200562983814217</v>
       </c>
       <c r="P7">
-        <v>0.003451464357217434</v>
+        <v>0.9200562983814217</v>
       </c>
       <c r="Q7">
-        <v>0.01136342216883333</v>
+        <v>1.020422732202</v>
       </c>
       <c r="R7">
-        <v>0.06818053301300001</v>
+        <v>4.081690928808</v>
       </c>
       <c r="S7">
-        <v>5.360140139326212E-05</v>
+        <v>0.03308839994891948</v>
       </c>
       <c r="T7">
-        <v>5.8133163642414E-05</v>
+        <v>0.02521214461347334</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,55 +900,55 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>11.69705966666667</v>
+        <v>0.3188806666666666</v>
       </c>
       <c r="H8">
-        <v>35.091179</v>
+        <v>0.956642</v>
       </c>
       <c r="I8">
-        <v>0.2007689570311854</v>
+        <v>0.006024233066651711</v>
       </c>
       <c r="J8">
-        <v>0.2179938868715589</v>
+        <v>0.006885366268669519</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>3.630373</v>
+        <v>0.046576</v>
       </c>
       <c r="N8">
-        <v>7.260746</v>
+        <v>0.093152</v>
       </c>
       <c r="O8">
-        <v>0.9976963734668979</v>
+        <v>0.07994370161857847</v>
       </c>
       <c r="P8">
-        <v>0.9965485356427827</v>
+        <v>0.07994370161857847</v>
       </c>
       <c r="Q8">
-        <v>42.46468959325566</v>
+        <v>0.01485218593066667</v>
       </c>
       <c r="R8">
-        <v>254.788137559534</v>
+        <v>0.08911311558399999</v>
       </c>
       <c r="S8">
-        <v>0.2003064603347451</v>
+        <v>0.0004815994907611784</v>
       </c>
       <c r="T8">
-        <v>0.2172414887409305</v>
+        <v>0.0005504416665171411</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>11.69705966666667</v>
+        <v>0.3188806666666666</v>
       </c>
       <c r="H9">
-        <v>35.091179</v>
+        <v>0.956642</v>
       </c>
       <c r="I9">
-        <v>0.2007689570311854</v>
+        <v>0.006024233066651711</v>
       </c>
       <c r="J9">
-        <v>0.2179938868715589</v>
+        <v>0.006885366268669519</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.008382333333333334</v>
+        <v>0.536034</v>
       </c>
       <c r="N9">
-        <v>0.025147</v>
+        <v>1.072068</v>
       </c>
       <c r="O9">
-        <v>0.00230362653310207</v>
+        <v>0.9200562983814217</v>
       </c>
       <c r="P9">
-        <v>0.003451464357217434</v>
+        <v>0.9200562983814217</v>
       </c>
       <c r="Q9">
-        <v>0.09804865314588888</v>
+        <v>0.170930879276</v>
       </c>
       <c r="R9">
-        <v>0.8824378783129999</v>
+        <v>1.025585275656</v>
       </c>
       <c r="S9">
-        <v>0.000462496696440268</v>
+        <v>0.005542633575890534</v>
       </c>
       <c r="T9">
-        <v>0.000752398130628475</v>
+        <v>0.00633492460215238</v>
       </c>
     </row>
   </sheetData>
